--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis & Sequence Diagram (Module GLIK) ver 1.0.xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis & Sequence Diagram (Module GLIK) ver 1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1CB5A7-BB83-4101-822E-CDEF16C3F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B978FD2E-60BF-4D8C-9FE2-F764B0A284C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Persiapan (ver 1.0)" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="382">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1191,7 +1191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1834,26 +1834,26 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="46" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.984375E-2" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="25" customWidth="1"/>
-    <col min="11" max="11" width="6.453125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.08984375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="14.5" customHeight="1">
+    <row r="3" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41">
         <v>1</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="41">
         <v>2</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="41">
         <v>3</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="41">
         <v>4</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="41">
         <v>5</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="41">
         <v>6</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="41">
         <v>7</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="41">
         <v>8</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="41">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="41">
         <v>10</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="41">
         <v>11</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="41">
         <v>12</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="41">
         <v>13</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="41">
         <v>14</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="41">
         <v>15</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="41">
         <v>16</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
@@ -2606,7 +2606,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11"/>
@@ -2618,7 +2618,7 @@
       <c r="J20" s="38"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11"/>
@@ -2644,30 +2644,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B26C05-1418-48A4-9E35-BE8C2DB41FAB}">
   <dimension ref="B2:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" customWidth="1"/>
-    <col min="12" max="12" width="6.6328125" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="16" customHeight="1">
+    <row r="3" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>35</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>36</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>37</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>38</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>40</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>41</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>42</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>43</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="14" customHeight="1">
+    <row r="46" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <v>44</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="14.5" customHeight="1">
+    <row r="47" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>45</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <v>46</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>47</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>48</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>49</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>50</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <v>51</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <v>52</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>53</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>54</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>55</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <v>56</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <v>57</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
         <v>59</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>60</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>61</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>62</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>63</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <v>64</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="8">
         <v>65</v>
       </c>
@@ -5661,29 +5661,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6D62D-E7AF-48B8-BDB9-AC8C4457F551}">
   <dimension ref="B2:P30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" customWidth="1"/>
-    <col min="13" max="14" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="14.5" customHeight="1">
+    <row r="3" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1">
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -7012,28 +7012,28 @@
   <dimension ref="B2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K7" sqref="K7:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6328125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" customWidth="1"/>
-    <col min="13" max="14" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -7103,9 +7103,11 @@
         <v>371</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="12"/>
+        <v>374</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L3" s="34" t="s">
         <v>373</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="26">
         <v>2</v>
       </c>
@@ -7143,9 +7145,11 @@
         <v>371</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K4" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L4" s="34" t="s">
         <v>373</v>
       </c>
@@ -7162,7 +7166,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="26">
         <v>3</v>
       </c>
@@ -7183,9 +7187,11 @@
         <v>371</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K5" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L5" s="34" t="s">
         <v>373</v>
       </c>
@@ -7202,7 +7208,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="26">
         <v>4</v>
       </c>
@@ -7223,9 +7229,11 @@
         <v>371</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K6" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L6" s="34" t="s">
         <v>373</v>
       </c>
@@ -7242,7 +7250,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="26">
         <v>5</v>
       </c>
@@ -7263,9 +7271,11 @@
         <v>371</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K7" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L7" s="34" t="s">
         <v>373</v>
       </c>
@@ -7282,7 +7292,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="26">
         <v>6</v>
       </c>
@@ -7303,9 +7313,11 @@
         <v>371</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K8" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L8" s="34" t="s">
         <v>373</v>
       </c>
@@ -7322,7 +7334,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="26">
         <v>7</v>
       </c>
@@ -7345,9 +7357,11 @@
         <v>371</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K9" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L9" s="34" t="s">
         <v>373</v>
       </c>
@@ -7364,7 +7378,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="26">
         <v>8</v>
       </c>
@@ -7406,7 +7420,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="26">
         <v>9</v>
       </c>
@@ -7448,7 +7462,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="26">
         <v>10</v>
       </c>
@@ -7469,9 +7483,11 @@
         <v>371</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K12" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L12" s="34" t="s">
         <v>373</v>
       </c>
@@ -7488,7 +7504,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="26">
         <v>11</v>
       </c>
@@ -7509,9 +7525,11 @@
         <v>371</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K13" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L13" s="34" t="s">
         <v>373</v>
       </c>
@@ -7528,7 +7546,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="26">
         <v>12</v>
       </c>
@@ -7549,9 +7567,11 @@
         <v>371</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K14" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L14" s="34" t="s">
         <v>373</v>
       </c>
@@ -7568,7 +7588,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>13</v>
       </c>
@@ -7589,9 +7609,11 @@
         <v>371</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K15" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L15" s="34" t="s">
         <v>373</v>
       </c>
@@ -7608,7 +7630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>14</v>
       </c>
@@ -7629,9 +7651,11 @@
         <v>371</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K16" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L16" s="34" t="s">
         <v>373</v>
       </c>
@@ -7648,7 +7672,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="26">
         <v>15</v>
       </c>
@@ -7669,9 +7693,11 @@
         <v>371</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" s="31"/>
+        <v>374</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="L17" s="34" t="s">
         <v>373</v>
       </c>
@@ -7704,19 +7730,19 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="2.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="31"/>
-    <col min="4" max="4" width="13.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="67.08984375" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7109375" style="31"/>
+    <col min="2" max="2" width="2.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="31"/>
+    <col min="4" max="4" width="13.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="67.140625" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.5" customHeight="1">
+    <row r="2" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="70" t="s">
         <v>350</v>
       </c>
@@ -7726,7 +7752,7 @@
       <c r="F2" s="70"/>
       <c r="G2" s="70"/>
     </row>
-    <row r="3" spans="2:7" s="48" customFormat="1" ht="14.5" customHeight="1">
+    <row r="3" spans="2:7" s="48" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="14.5" customHeight="1">
+    <row r="4" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="71">
         <v>1</v>
       </c>
@@ -7767,7 +7793,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="14.5" customHeight="1">
+    <row r="5" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="71"/>
       <c r="C5" s="72"/>
       <c r="D5" s="51" t="s">
@@ -7779,7 +7805,7 @@
       <c r="F5" s="71"/>
       <c r="G5" s="72"/>
     </row>
-    <row r="6" spans="2:7" ht="14.5" customHeight="1">
+    <row r="6" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
       <c r="D6" s="51" t="s">
@@ -7791,7 +7817,7 @@
       <c r="F6" s="71"/>
       <c r="G6" s="72"/>
     </row>
-    <row r="7" spans="2:7" ht="14.5" customHeight="1">
+    <row r="7" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
       <c r="D7" s="51" t="s">
@@ -7803,7 +7829,7 @@
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
     </row>
-    <row r="8" spans="2:7" ht="14.5" customHeight="1">
+    <row r="8" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="52">
         <v>2</v>
       </c>
@@ -7823,7 +7849,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="14.5" customHeight="1">
+    <row r="11" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="70" t="s">
         <v>351</v>
       </c>
@@ -7833,7 +7859,7 @@
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
     </row>
-    <row r="12" spans="2:7" ht="14.5" customHeight="1">
+    <row r="12" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="49" t="s">
         <v>3</v>
       </c>
@@ -7853,7 +7879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="14.5" customHeight="1">
+    <row r="13" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="71">
         <v>1</v>
       </c>
@@ -7874,7 +7900,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="14.5" customHeight="1">
+    <row r="14" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
       <c r="D14" s="51" t="s">
@@ -7886,7 +7912,7 @@
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
     </row>
-    <row r="15" spans="2:7" ht="14.5" customHeight="1">
+    <row r="15" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="71"/>
       <c r="C15" s="72"/>
       <c r="D15" s="51" t="s">
@@ -7898,7 +7924,7 @@
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
     </row>
-    <row r="16" spans="2:7" ht="14.5" customHeight="1">
+    <row r="16" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
       <c r="C16" s="72"/>
       <c r="D16" s="51" t="s">
@@ -7910,7 +7936,7 @@
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
     </row>
-    <row r="17" spans="2:7" ht="14.5" customHeight="1">
+    <row r="17" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="52">
         <v>2</v>
       </c>
@@ -7930,7 +7956,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14.5" customHeight="1">
+    <row r="20" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="70" t="s">
         <v>353</v>
       </c>
@@ -7940,7 +7966,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="70"/>
     </row>
-    <row r="21" spans="2:7" ht="14.5" customHeight="1">
+    <row r="21" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="49" t="s">
         <v>3</v>
       </c>
@@ -7960,7 +7986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.5" customHeight="1">
+    <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="71">
         <v>1</v>
       </c>
@@ -7981,7 +8007,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="14.5" customHeight="1">
+    <row r="23" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="71"/>
       <c r="C23" s="72"/>
       <c r="D23" s="51" t="s">
@@ -7993,7 +8019,7 @@
       <c r="F23" s="71"/>
       <c r="G23" s="74"/>
     </row>
-    <row r="24" spans="2:7" ht="14.5" customHeight="1">
+    <row r="24" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
       <c r="D24" s="51" t="s">
@@ -8005,7 +8031,7 @@
       <c r="F24" s="71"/>
       <c r="G24" s="74"/>
     </row>
-    <row r="25" spans="2:7" ht="14.5" customHeight="1">
+    <row r="25" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="71"/>
       <c r="C25" s="72"/>
       <c r="D25" s="51" t="s">
@@ -8017,7 +8043,7 @@
       <c r="F25" s="71"/>
       <c r="G25" s="74"/>
     </row>
-    <row r="26" spans="2:7" ht="14.5" customHeight="1">
+    <row r="26" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="52">
         <v>2</v>
       </c>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis & Sequence Diagram (Module GLIK) ver 1.0.xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis & Sequence Diagram (Module GLIK) ver 1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\Robust Analisis - Likuidasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B978FD2E-60BF-4D8C-9FE2-F764B0A284C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FFE14-BEE8-4235-9447-F686B69A75B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Persiapan (ver 1.0)" sheetId="9" r:id="rId1"/>
@@ -1191,7 +1191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1834,26 +1834,26 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="46" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.984375E-2" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="25" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16">
       <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="14.5" customHeight="1">
       <c r="B3" s="41">
         <v>1</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16">
       <c r="B4" s="41">
         <v>2</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16">
       <c r="B5" s="41">
         <v>3</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16">
       <c r="B6" s="41">
         <v>4</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16">
       <c r="B7" s="41">
         <v>5</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16">
       <c r="B8" s="41">
         <v>6</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16">
       <c r="B9" s="41">
         <v>7</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16">
       <c r="B10" s="41">
         <v>8</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16">
       <c r="B11" s="41">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="41">
         <v>10</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16">
       <c r="B13" s="41">
         <v>11</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16">
       <c r="B14" s="41">
         <v>12</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16">
       <c r="B15" s="41">
         <v>13</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16">
       <c r="B16" s="41">
         <v>14</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="41">
         <v>15</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="41">
         <v>16</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="24"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
@@ -2606,7 +2606,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="24"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11"/>
@@ -2618,7 +2618,7 @@
       <c r="J20" s="38"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="24"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11"/>
@@ -2644,30 +2644,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B26C05-1418-48A4-9E35-BE8C2DB41FAB}">
   <dimension ref="B2:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" customWidth="1"/>
+    <col min="12" max="12" width="6.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="16" customHeight="1">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="B37" s="8">
         <v>35</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="8">
         <v>36</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" s="8">
         <v>37</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="B40" s="8">
         <v>38</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="8">
         <v>40</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" s="8">
         <v>41</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" s="8">
         <v>42</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" s="8">
         <v>43</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" ht="14" customHeight="1">
       <c r="B46" s="8">
         <v>44</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" ht="14.5" customHeight="1">
       <c r="B47" s="8">
         <v>45</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="B48" s="8">
         <v>46</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16">
       <c r="B49" s="8">
         <v>47</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16">
       <c r="B50" s="8">
         <v>48</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16">
       <c r="B51" s="8">
         <v>49</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16">
       <c r="B52" s="8">
         <v>50</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16">
       <c r="B53" s="8">
         <v>51</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16">
       <c r="B54" s="8">
         <v>52</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16">
       <c r="B55" s="8">
         <v>53</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16">
       <c r="B56" s="8">
         <v>54</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16">
       <c r="B57" s="8">
         <v>55</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16">
       <c r="B58" s="8">
         <v>56</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16">
       <c r="B59" s="8">
         <v>57</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16">
       <c r="B61" s="8">
         <v>59</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16">
       <c r="B62" s="8">
         <v>60</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16">
       <c r="B63" s="8">
         <v>61</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16">
       <c r="B64" s="8">
         <v>62</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16">
       <c r="B65" s="8">
         <v>63</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16">
       <c r="B66" s="8">
         <v>64</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16">
       <c r="B67" s="8">
         <v>65</v>
       </c>
@@ -5661,29 +5661,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6D62D-E7AF-48B8-BDB9-AC8C4457F551}">
   <dimension ref="B2:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" customWidth="1"/>
+    <col min="13" max="14" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="14.5" customHeight="1">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15" customHeight="1">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -7011,29 +7011,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23902C-6C91-46EC-B5AE-D4AA37303527}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" customWidth="1"/>
+    <col min="13" max="14" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -7108,8 +7108,8 @@
       <c r="K3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>373</v>
+      <c r="L3" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M3" s="56" t="s">
         <v>371</v>
@@ -7120,11 +7120,11 @@
       <c r="O3" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P3" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="26">
         <v>2</v>
       </c>
@@ -7150,8 +7150,8 @@
       <c r="K4" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L4" s="34" t="s">
-        <v>373</v>
+      <c r="L4" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M4" s="56" t="s">
         <v>371</v>
@@ -7162,11 +7162,11 @@
       <c r="O4" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P4" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="26">
         <v>3</v>
       </c>
@@ -7192,8 +7192,8 @@
       <c r="K5" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>373</v>
+      <c r="L5" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M5" s="56" t="s">
         <v>371</v>
@@ -7204,11 +7204,11 @@
       <c r="O5" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P5" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="26">
         <v>4</v>
       </c>
@@ -7234,8 +7234,8 @@
       <c r="K6" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L6" s="34" t="s">
-        <v>373</v>
+      <c r="L6" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M6" s="56" t="s">
         <v>371</v>
@@ -7246,11 +7246,11 @@
       <c r="O6" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P6" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P6" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="14" customHeight="1">
       <c r="B7" s="26">
         <v>5</v>
       </c>
@@ -7276,8 +7276,8 @@
       <c r="K7" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="34" t="s">
-        <v>373</v>
+      <c r="L7" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M7" s="56" t="s">
         <v>371</v>
@@ -7288,11 +7288,11 @@
       <c r="O7" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P7" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" s="26">
         <v>6</v>
       </c>
@@ -7318,8 +7318,8 @@
       <c r="K8" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L8" s="34" t="s">
-        <v>373</v>
+      <c r="L8" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M8" s="56" t="s">
         <v>371</v>
@@ -7330,11 +7330,11 @@
       <c r="O8" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P8" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" s="26">
         <v>7</v>
       </c>
@@ -7362,8 +7362,8 @@
       <c r="K9" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L9" s="34" t="s">
-        <v>373</v>
+      <c r="L9" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M9" s="56" t="s">
         <v>371</v>
@@ -7374,11 +7374,11 @@
       <c r="O9" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P9" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="26">
         <v>8</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>371</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>143</v>
@@ -7420,7 +7420,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16">
       <c r="B11" s="26">
         <v>9</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>371</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>143</v>
@@ -7462,7 +7462,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="26">
         <v>10</v>
       </c>
@@ -7488,8 +7488,8 @@
       <c r="K12" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="34" t="s">
-        <v>373</v>
+      <c r="L12" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M12" s="56" t="s">
         <v>371</v>
@@ -7500,11 +7500,11 @@
       <c r="O12" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P12" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="26">
         <v>11</v>
       </c>
@@ -7530,8 +7530,8 @@
       <c r="K13" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L13" s="34" t="s">
-        <v>373</v>
+      <c r="L13" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M13" s="56" t="s">
         <v>371</v>
@@ -7542,11 +7542,11 @@
       <c r="O13" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P13" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="26">
         <v>12</v>
       </c>
@@ -7572,8 +7572,8 @@
       <c r="K14" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="34" t="s">
-        <v>373</v>
+      <c r="L14" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M14" s="56" t="s">
         <v>371</v>
@@ -7584,11 +7584,11 @@
       <c r="O14" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P14" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="26">
         <v>13</v>
       </c>
@@ -7614,8 +7614,8 @@
       <c r="K15" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="34" t="s">
-        <v>373</v>
+      <c r="L15" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M15" s="56" t="s">
         <v>371</v>
@@ -7626,11 +7626,11 @@
       <c r="O15" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P15" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="26">
         <v>14</v>
       </c>
@@ -7656,8 +7656,8 @@
       <c r="K16" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L16" s="34" t="s">
-        <v>373</v>
+      <c r="L16" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M16" s="56" t="s">
         <v>371</v>
@@ -7668,11 +7668,11 @@
       <c r="O16" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P16" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P16" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="26">
         <v>15</v>
       </c>
@@ -7698,8 +7698,8 @@
       <c r="K17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L17" s="34" t="s">
-        <v>373</v>
+      <c r="L17" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="M17" s="56" t="s">
         <v>371</v>
@@ -7708,8 +7708,8 @@
       <c r="O17" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="P17" s="34" t="s">
-        <v>373</v>
+      <c r="P17" s="59" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7730,19 +7730,19 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="31"/>
-    <col min="2" max="2" width="2.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="31"/>
-    <col min="4" max="4" width="13.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="67.140625" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="31"/>
+    <col min="2" max="2" width="2.1796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="31"/>
+    <col min="4" max="4" width="13.453125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="67.08984375" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="14.5" customHeight="1">
       <c r="B2" s="70" t="s">
         <v>350</v>
       </c>
@@ -7752,7 +7752,7 @@
       <c r="F2" s="70"/>
       <c r="G2" s="70"/>
     </row>
-    <row r="3" spans="2:7" s="48" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" s="48" customFormat="1" ht="14.5" customHeight="1">
       <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="14.5" customHeight="1">
       <c r="B4" s="71">
         <v>1</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="14.5" customHeight="1">
       <c r="B5" s="71"/>
       <c r="C5" s="72"/>
       <c r="D5" s="51" t="s">
@@ -7805,7 +7805,7 @@
       <c r="F5" s="71"/>
       <c r="G5" s="72"/>
     </row>
-    <row r="6" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="14.5" customHeight="1">
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
       <c r="D6" s="51" t="s">
@@ -7817,7 +7817,7 @@
       <c r="F6" s="71"/>
       <c r="G6" s="72"/>
     </row>
-    <row r="7" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="14.5" customHeight="1">
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
       <c r="D7" s="51" t="s">
@@ -7829,7 +7829,7 @@
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
     </row>
-    <row r="8" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="14.5" customHeight="1">
       <c r="B8" s="52">
         <v>2</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" ht="14.5" customHeight="1">
       <c r="B11" s="70" t="s">
         <v>351</v>
       </c>
@@ -7859,7 +7859,7 @@
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
     </row>
-    <row r="12" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" ht="14.5" customHeight="1">
       <c r="B12" s="49" t="s">
         <v>3</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7" ht="14.5" customHeight="1">
       <c r="B13" s="71">
         <v>1</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7" ht="14.5" customHeight="1">
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
       <c r="D14" s="51" t="s">
@@ -7912,7 +7912,7 @@
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
     </row>
-    <row r="15" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" ht="14.5" customHeight="1">
       <c r="B15" s="71"/>
       <c r="C15" s="72"/>
       <c r="D15" s="51" t="s">
@@ -7924,7 +7924,7 @@
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
     </row>
-    <row r="16" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" ht="14.5" customHeight="1">
       <c r="B16" s="71"/>
       <c r="C16" s="72"/>
       <c r="D16" s="51" t="s">
@@ -7936,7 +7936,7 @@
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
     </row>
-    <row r="17" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="14.5" customHeight="1">
       <c r="B17" s="52">
         <v>2</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="14.5" customHeight="1">
       <c r="B20" s="70" t="s">
         <v>353</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="70"/>
     </row>
-    <row r="21" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="14.5" customHeight="1">
       <c r="B21" s="49" t="s">
         <v>3</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="14.5" customHeight="1">
       <c r="B22" s="71">
         <v>1</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="14.5" customHeight="1">
       <c r="B23" s="71"/>
       <c r="C23" s="72"/>
       <c r="D23" s="51" t="s">
@@ -8019,7 +8019,7 @@
       <c r="F23" s="71"/>
       <c r="G23" s="74"/>
     </row>
-    <row r="24" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="14.5" customHeight="1">
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
       <c r="D24" s="51" t="s">
@@ -8031,7 +8031,7 @@
       <c r="F24" s="71"/>
       <c r="G24" s="74"/>
     </row>
-    <row r="25" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="14.5" customHeight="1">
       <c r="B25" s="71"/>
       <c r="C25" s="72"/>
       <c r="D25" s="51" t="s">
@@ -8043,7 +8043,7 @@
       <c r="F25" s="71"/>
       <c r="G25" s="74"/>
     </row>
-    <row r="26" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="14.5" customHeight="1">
       <c r="B26" s="52">
         <v>2</v>
       </c>

--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis & Sequence Diagram (Module GLIK) ver 1.0.xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis & Sequence Diagram (Module GLIK) ver 1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FFE14-BEE8-4235-9447-F686B69A75B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE05293-357D-4C68-BBE9-65E332EDBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Persiapan (ver 1.0)" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Pengakhiran (ver 1.0)" sheetId="4" r:id="rId3"/>
     <sheet name="Aplikasi TL (ver 1.0)" sheetId="6" r:id="rId4"/>
     <sheet name="Jumlah Use Case" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="385">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1185,6 +1186,15 @@
   </si>
   <si>
     <t>Melakukan checklist dan menyusun dokumen penerimaan LANIR &amp; LPJ TL audited</t>
+  </si>
+  <si>
+    <t>Deskripsi Penjelasan (TSD)</t>
+  </si>
+  <si>
+    <t>Table Yang Belum ada</t>
+  </si>
+  <si>
+    <t>Dana Cadangan</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1484,6 +1494,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1513,6 +1526,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA68C8A-DA6F-4481-B8E4-BFBE438FF51F}">
-  <dimension ref="B2:P21"/>
+  <dimension ref="B2:Q21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1839,21 +1855,22 @@
     <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="46" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.984375E-2" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.984375E-2" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9.36328125" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="25" customWidth="1"/>
-    <col min="11" max="11" width="6.453125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="5" style="25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" style="25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.1796875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="15.08984375" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:17">
       <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
@@ -1899,12 +1916,15 @@
       <c r="P2" s="10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" ht="14.5" customHeight="1">
+      <c r="Q2" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="14.5" customHeight="1">
       <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="57" t="s">
@@ -1944,12 +1964,15 @@
       <c r="P3" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="Q3" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="57" t="s">
         <v>213</v>
       </c>
@@ -1987,12 +2010,15 @@
       <c r="P4" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="Q4" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="41">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="57" t="s">
         <v>215</v>
       </c>
@@ -2030,12 +2056,15 @@
       <c r="P5" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="Q5" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="41">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="57" t="s">
         <v>217</v>
       </c>
@@ -2073,12 +2102,15 @@
       <c r="P6" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="Q6" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="41">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="57" t="s">
         <v>218</v>
       </c>
@@ -2116,12 +2148,15 @@
       <c r="P7" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="Q7" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="41">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="57" t="s">
         <v>220</v>
       </c>
@@ -2159,12 +2194,15 @@
       <c r="P8" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="Q8" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="41">
         <v>7</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="57" t="s">
         <v>222</v>
       </c>
@@ -2202,12 +2240,15 @@
       <c r="P9" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="Q9" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="41">
         <v>8</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="57" t="s">
         <v>224</v>
       </c>
@@ -2245,12 +2286,15 @@
       <c r="P10" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="Q10" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="41">
         <v>9</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="57" t="s">
         <v>226</v>
       </c>
@@ -2288,12 +2332,15 @@
       <c r="P11" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="Q11" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="41">
         <v>10</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="57" t="s">
         <v>228</v>
       </c>
@@ -2331,12 +2378,15 @@
       <c r="P12" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="Q12" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="41">
         <v>11</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="57" t="s">
         <v>228</v>
       </c>
@@ -2374,12 +2424,15 @@
       <c r="P13" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="Q13" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="41">
         <v>12</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="67" t="s">
         <v>142</v>
       </c>
       <c r="D14" s="57" t="s">
@@ -2419,12 +2472,15 @@
       <c r="P14" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="Q14" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="41">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="57" t="s">
         <v>228</v>
       </c>
@@ -2462,12 +2518,15 @@
       <c r="P15" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="Q15" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="41">
         <v>14</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="57" t="s">
         <v>229</v>
       </c>
@@ -2505,12 +2564,15 @@
       <c r="P16" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="Q16" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" s="41">
         <v>15</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="57" t="s">
         <v>231</v>
       </c>
@@ -2548,8 +2610,11 @@
       <c r="P17" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="Q17" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="41">
         <v>16</v>
       </c>
@@ -2593,8 +2658,11 @@
       <c r="P18" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="Q18" s="76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" s="24"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
@@ -2606,7 +2674,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:17">
       <c r="B20" s="24"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11"/>
@@ -2618,7 +2686,7 @@
       <c r="J20" s="38"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:17">
       <c r="B21" s="24"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11"/>
@@ -2642,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B26C05-1418-48A4-9E35-BE8C2DB41FAB}">
-  <dimension ref="B2:P67"/>
+  <dimension ref="B2:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2653,21 +2721,22 @@
     <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.6328125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="10.08984375" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" customWidth="1"/>
-    <col min="12" max="12" width="6.6328125" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6328125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.453125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:17">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -2713,12 +2782,15 @@
       <c r="P2" s="10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" ht="16" customHeight="1">
+      <c r="Q2" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="16" customHeight="1">
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2760,12 +2832,15 @@
       <c r="P3" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="Q3" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2805,12 +2880,15 @@
       <c r="P4" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="Q4" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2850,12 +2928,15 @@
       <c r="P5" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="Q5" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
@@ -2895,12 +2976,15 @@
       <c r="P6" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="Q6" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
@@ -2940,12 +3024,15 @@
       <c r="P7" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="Q7" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
@@ -2985,12 +3072,15 @@
       <c r="P8" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="Q8" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
@@ -3030,12 +3120,15 @@
       <c r="P9" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="Q9" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
@@ -3075,12 +3168,15 @@
       <c r="P10" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="Q10" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="14" t="s">
         <v>19</v>
       </c>
@@ -3120,12 +3216,15 @@
       <c r="P11" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="Q11" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="16" t="s">
         <v>21</v>
       </c>
@@ -3165,12 +3264,15 @@
       <c r="P12" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="Q12" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="16" t="s">
         <v>23</v>
       </c>
@@ -3210,12 +3312,15 @@
       <c r="P13" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="Q13" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="16" t="s">
         <v>25</v>
       </c>
@@ -3255,12 +3360,15 @@
       <c r="P14" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="Q14" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -3300,12 +3408,15 @@
       <c r="P15" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="Q15" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="14" t="s">
         <v>29</v>
       </c>
@@ -3345,12 +3456,15 @@
       <c r="P16" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="Q16" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="16" t="s">
         <v>31</v>
       </c>
@@ -3390,12 +3504,15 @@
       <c r="P17" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="Q17" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="14" t="s">
         <v>33</v>
       </c>
@@ -3435,12 +3552,15 @@
       <c r="P18" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="Q18" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" s="8">
         <v>17</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="14" t="s">
         <v>35</v>
       </c>
@@ -3480,12 +3600,15 @@
       <c r="P19" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="Q19" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" s="8">
         <v>18</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="16" t="s">
         <v>37</v>
       </c>
@@ -3525,12 +3648,15 @@
       <c r="P20" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="21" spans="2:16">
+      <c r="Q20" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="14" t="s">
         <v>39</v>
       </c>
@@ -3570,12 +3696,15 @@
       <c r="P21" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="Q21" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="16" t="s">
         <v>41</v>
       </c>
@@ -3615,12 +3744,15 @@
       <c r="P22" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="Q22" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="14" t="s">
         <v>43</v>
       </c>
@@ -3660,12 +3792,15 @@
       <c r="P23" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="Q23" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
       <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="16" t="s">
         <v>45</v>
       </c>
@@ -3705,12 +3840,15 @@
       <c r="P24" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="Q24" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
       <c r="B25" s="8">
         <v>23</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="68" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -3752,12 +3890,15 @@
       <c r="P25" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="Q25" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
       <c r="B26" s="8">
         <v>24</v>
       </c>
-      <c r="C26" s="67"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="15" t="s">
         <v>52</v>
       </c>
@@ -3797,12 +3938,15 @@
       <c r="P26" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="Q26" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
       <c r="B27" s="8">
         <v>25</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="15" t="s">
         <v>54</v>
       </c>
@@ -3842,12 +3986,15 @@
       <c r="P27" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="Q27" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
       <c r="B28" s="8">
         <v>26</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="18" t="s">
         <v>56</v>
       </c>
@@ -3887,12 +4034,15 @@
       <c r="P28" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="29" spans="2:16">
+      <c r="Q28" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
       <c r="B29" s="8">
         <v>27</v>
       </c>
-      <c r="C29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="21" t="s">
         <v>58</v>
       </c>
@@ -3932,12 +4082,15 @@
       <c r="P29" s="56" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="Q29" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
       <c r="B30" s="8">
         <v>28</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="18" t="s">
         <v>60</v>
       </c>
@@ -3977,12 +4130,15 @@
       <c r="P30" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="31" spans="2:16">
+      <c r="Q30" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
       <c r="B31" s="8">
         <v>29</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="15" t="s">
         <v>62</v>
       </c>
@@ -4022,12 +4178,15 @@
       <c r="P31" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="32" spans="2:16">
+      <c r="Q31" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
       <c r="B32" s="8">
         <v>30</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="21" t="s">
         <v>64</v>
       </c>
@@ -4067,12 +4226,15 @@
       <c r="P32" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="Q32" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
       <c r="B33" s="8">
         <v>31</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="18" t="s">
         <v>66</v>
       </c>
@@ -4112,12 +4274,15 @@
       <c r="P33" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="34" spans="2:16">
+      <c r="Q33" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
       <c r="B34" s="8">
         <v>32</v>
       </c>
-      <c r="C34" s="67"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="21" t="s">
         <v>68</v>
       </c>
@@ -4157,12 +4322,15 @@
       <c r="P34" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="35" spans="2:16">
+      <c r="Q34" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
       <c r="B35" s="8">
         <v>33</v>
       </c>
-      <c r="C35" s="67"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="18" t="s">
         <v>70</v>
       </c>
@@ -4202,12 +4370,15 @@
       <c r="P35" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="36" spans="2:16">
+      <c r="Q35" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
       <c r="B36" s="8">
         <v>34</v>
       </c>
-      <c r="C36" s="67"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="21" t="s">
         <v>72</v>
       </c>
@@ -4247,12 +4418,15 @@
       <c r="P36" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="37" spans="2:16">
+      <c r="Q36" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
       <c r="B37" s="8">
         <v>35</v>
       </c>
-      <c r="C37" s="67"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="21" t="s">
         <v>74</v>
       </c>
@@ -4292,12 +4466,15 @@
       <c r="P37" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="38" spans="2:16">
+      <c r="Q37" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
       <c r="B38" s="8">
         <v>36</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="18" t="s">
         <v>76</v>
       </c>
@@ -4337,12 +4514,15 @@
       <c r="P38" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="39" spans="2:16">
+      <c r="Q38" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
       <c r="B39" s="8">
         <v>37</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="21" t="s">
         <v>78</v>
       </c>
@@ -4382,12 +4562,15 @@
       <c r="P39" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="Q39" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
       <c r="B40" s="8">
         <v>38</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="21" t="s">
         <v>80</v>
       </c>
@@ -4427,12 +4610,15 @@
       <c r="P40" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="41" spans="2:16">
+      <c r="Q40" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
       <c r="B41" s="8">
         <v>39</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="21" t="s">
         <v>82</v>
       </c>
@@ -4472,12 +4658,15 @@
       <c r="P41" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="42" spans="2:16">
+      <c r="Q41" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
       <c r="B42" s="8">
         <v>40</v>
       </c>
-      <c r="C42" s="67"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="21" t="s">
         <v>84</v>
       </c>
@@ -4517,12 +4706,15 @@
       <c r="P42" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="43" spans="2:16">
+      <c r="Q42" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
       <c r="B43" s="8">
         <v>41</v>
       </c>
-      <c r="C43" s="67"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="18" t="s">
         <v>86</v>
       </c>
@@ -4562,12 +4754,15 @@
       <c r="P43" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="44" spans="2:16">
+      <c r="Q43" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
       <c r="B44" s="8">
         <v>42</v>
       </c>
-      <c r="C44" s="67"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="60" t="s">
         <v>88</v>
       </c>
@@ -4607,12 +4802,15 @@
       <c r="P44" s="64" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="45" spans="2:16">
+      <c r="Q44" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
       <c r="B45" s="8">
         <v>43</v>
       </c>
-      <c r="C45" s="67"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="28" t="s">
         <v>90</v>
       </c>
@@ -4652,12 +4850,15 @@
       <c r="P45" s="34" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" ht="14" customHeight="1">
+      <c r="Q45" s="34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="14" customHeight="1">
       <c r="B46" s="8">
         <v>44</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="18" t="s">
         <v>92</v>
       </c>
@@ -4697,12 +4898,15 @@
       <c r="P46" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" ht="14.5" customHeight="1">
+      <c r="Q46" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="14.5" customHeight="1">
       <c r="B47" s="8">
         <v>45</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="68" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="21" t="s">
@@ -4744,12 +4948,15 @@
       <c r="P47" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="48" spans="2:16">
+      <c r="Q47" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
       <c r="B48" s="8">
         <v>46</v>
       </c>
-      <c r="C48" s="67"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="15" t="s">
         <v>96</v>
       </c>
@@ -4789,12 +4996,15 @@
       <c r="P48" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="49" spans="2:16">
+      <c r="Q48" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
       <c r="B49" s="8">
         <v>47</v>
       </c>
-      <c r="C49" s="67"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="18" t="s">
         <v>97</v>
       </c>
@@ -4834,12 +5044,15 @@
       <c r="P49" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="50" spans="2:16">
+      <c r="Q49" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
       <c r="B50" s="8">
         <v>48</v>
       </c>
-      <c r="C50" s="67"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="15" t="s">
         <v>98</v>
       </c>
@@ -4879,12 +5092,15 @@
       <c r="P50" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="51" spans="2:16">
+      <c r="Q50" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
       <c r="B51" s="8">
         <v>49</v>
       </c>
-      <c r="C51" s="67"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="21" t="s">
         <v>99</v>
       </c>
@@ -4924,12 +5140,15 @@
       <c r="P51" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="52" spans="2:16">
+      <c r="Q51" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
       <c r="B52" s="8">
         <v>50</v>
       </c>
-      <c r="C52" s="67"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="18" t="s">
         <v>100</v>
       </c>
@@ -4969,12 +5188,15 @@
       <c r="P52" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="53" spans="2:16">
+      <c r="Q52" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
       <c r="B53" s="8">
         <v>51</v>
       </c>
-      <c r="C53" s="67"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="15" t="s">
         <v>101</v>
       </c>
@@ -5014,12 +5236,15 @@
       <c r="P53" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="54" spans="2:16">
+      <c r="Q53" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
       <c r="B54" s="8">
         <v>52</v>
       </c>
-      <c r="C54" s="67"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="18" t="s">
         <v>102</v>
       </c>
@@ -5059,12 +5284,15 @@
       <c r="P54" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="55" spans="2:16">
+      <c r="Q54" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
       <c r="B55" s="8">
         <v>53</v>
       </c>
-      <c r="C55" s="67"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="15" t="s">
         <v>103</v>
       </c>
@@ -5104,12 +5332,15 @@
       <c r="P55" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="56" spans="2:16">
+      <c r="Q55" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
       <c r="B56" s="8">
         <v>54</v>
       </c>
-      <c r="C56" s="67"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="21" t="s">
         <v>104</v>
       </c>
@@ -5149,12 +5380,15 @@
       <c r="P56" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="57" spans="2:16">
+      <c r="Q56" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17">
       <c r="B57" s="8">
         <v>55</v>
       </c>
-      <c r="C57" s="67"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="21" t="s">
         <v>115</v>
       </c>
@@ -5194,12 +5428,15 @@
       <c r="P57" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="58" spans="2:16">
+      <c r="Q57" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17">
       <c r="B58" s="8">
         <v>56</v>
       </c>
-      <c r="C58" s="67"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="21" t="s">
         <v>117</v>
       </c>
@@ -5239,12 +5476,15 @@
       <c r="P58" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="59" spans="2:16">
+      <c r="Q58" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17">
       <c r="B59" s="8">
         <v>57</v>
       </c>
-      <c r="C59" s="67"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="21" t="s">
         <v>120</v>
       </c>
@@ -5284,12 +5524,15 @@
       <c r="P59" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="60" spans="2:16">
+      <c r="Q59" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17">
       <c r="B60" s="8">
         <v>58</v>
       </c>
-      <c r="C60" s="67"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="21" t="s">
         <v>122</v>
       </c>
@@ -5329,12 +5572,15 @@
       <c r="P60" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="61" spans="2:16">
+      <c r="Q60" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17">
       <c r="B61" s="8">
         <v>59</v>
       </c>
-      <c r="C61" s="67"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="21" t="s">
         <v>124</v>
       </c>
@@ -5374,12 +5620,15 @@
       <c r="P61" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="62" spans="2:16">
+      <c r="Q61" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17">
       <c r="B62" s="8">
         <v>60</v>
       </c>
-      <c r="C62" s="67"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="21" t="s">
         <v>126</v>
       </c>
@@ -5419,12 +5668,15 @@
       <c r="P62" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="63" spans="2:16">
+      <c r="Q62" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17">
       <c r="B63" s="8">
         <v>61</v>
       </c>
-      <c r="C63" s="67"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="18" t="s">
         <v>128</v>
       </c>
@@ -5464,12 +5716,15 @@
       <c r="P63" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="64" spans="2:16">
+      <c r="Q63" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17">
       <c r="B64" s="8">
         <v>62</v>
       </c>
-      <c r="C64" s="67"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="18" t="s">
         <v>130</v>
       </c>
@@ -5509,12 +5764,15 @@
       <c r="P64" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="65" spans="2:16">
+      <c r="Q64" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17">
       <c r="B65" s="8">
         <v>63</v>
       </c>
-      <c r="C65" s="67"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="15" t="s">
         <v>132</v>
       </c>
@@ -5554,12 +5812,15 @@
       <c r="P65" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="66" spans="2:16">
+      <c r="Q65" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17">
       <c r="B66" s="8">
         <v>64</v>
       </c>
-      <c r="C66" s="67"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="21" t="s">
         <v>134</v>
       </c>
@@ -5599,12 +5860,15 @@
       <c r="P66" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="67" spans="2:16">
+      <c r="Q66" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17">
       <c r="B67" s="8">
         <v>65</v>
       </c>
-      <c r="C67" s="67"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="18" t="s">
         <v>136</v>
       </c>
@@ -5642,6 +5906,9 @@
         <v>371</v>
       </c>
       <c r="P67" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q67" s="65" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5659,10 +5926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6D62D-E7AF-48B8-BDB9-AC8C4457F551}">
-  <dimension ref="B2:P30"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5670,20 +5937,21 @@
     <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" customWidth="1"/>
+    <col min="5" max="5" width="66.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.90625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="13.1796875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" customWidth="1"/>
+    <col min="16" max="16" width="15.36328125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:17">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5729,12 +5997,15 @@
       <c r="P2" s="10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" ht="14.5" customHeight="1">
+      <c r="Q2" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="14.5" customHeight="1">
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -5776,12 +6047,15 @@
       <c r="P3" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="Q3" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="13" t="s">
         <v>275</v>
       </c>
@@ -5821,12 +6095,15 @@
       <c r="P4" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="Q4" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="13" t="s">
         <v>277</v>
       </c>
@@ -5866,12 +6143,15 @@
       <c r="P5" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="Q5" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="13" t="s">
         <v>279</v>
       </c>
@@ -5911,12 +6191,15 @@
       <c r="P6" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1">
+      <c r="Q6" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15" customHeight="1">
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="13" t="s">
         <v>281</v>
       </c>
@@ -5956,12 +6239,15 @@
       <c r="P7" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="Q7" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="13" t="s">
         <v>283</v>
       </c>
@@ -6001,12 +6287,15 @@
       <c r="P8" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="Q8" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="13" t="s">
         <v>285</v>
       </c>
@@ -6046,12 +6335,15 @@
       <c r="P9" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="Q9" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="13" t="s">
         <v>287</v>
       </c>
@@ -6091,12 +6383,15 @@
       <c r="P10" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="Q10" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="13" t="s">
         <v>289</v>
       </c>
@@ -6136,12 +6431,15 @@
       <c r="P11" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="Q11" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="68" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -6183,12 +6481,15 @@
       <c r="P12" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="Q12" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="13" t="s">
         <v>269</v>
       </c>
@@ -6228,12 +6529,15 @@
       <c r="P13" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="Q13" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="13" t="s">
         <v>271</v>
       </c>
@@ -6273,12 +6577,15 @@
       <c r="P14" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="Q14" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="13" t="s">
         <v>291</v>
       </c>
@@ -6318,12 +6625,15 @@
       <c r="P15" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="Q15" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="13" t="s">
         <v>293</v>
       </c>
@@ -6363,12 +6673,15 @@
       <c r="P16" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="Q16" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="13" t="s">
         <v>283</v>
       </c>
@@ -6408,12 +6721,15 @@
       <c r="P17" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="Q17" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="13" t="s">
         <v>294</v>
       </c>
@@ -6453,12 +6769,15 @@
       <c r="P18" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="Q18" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" s="8">
         <v>17</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="13" t="s">
         <v>296</v>
       </c>
@@ -6498,12 +6817,15 @@
       <c r="P19" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="Q19" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" s="8">
         <v>18</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="13" t="s">
         <v>298</v>
       </c>
@@ -6543,12 +6865,15 @@
       <c r="P20" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="21" spans="2:16">
+      <c r="Q20" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="13" t="s">
         <v>300</v>
       </c>
@@ -6588,12 +6913,15 @@
       <c r="P21" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="Q21" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="13" t="s">
         <v>302</v>
       </c>
@@ -6633,12 +6961,15 @@
       <c r="P22" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="Q22" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="69" t="s">
         <v>304</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -6680,12 +7011,15 @@
       <c r="P23" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="Q23" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
       <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="13" t="s">
         <v>306</v>
       </c>
@@ -6725,12 +7059,15 @@
       <c r="P24" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="Q24" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
       <c r="B25" s="8">
         <v>23</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="13" t="s">
         <v>308</v>
       </c>
@@ -6770,12 +7107,15 @@
       <c r="P25" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="Q25" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
       <c r="B26" s="8">
         <v>24</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="13" t="s">
         <v>310</v>
       </c>
@@ -6815,12 +7155,15 @@
       <c r="P26" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="Q26" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
       <c r="B27" s="8">
         <v>25</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="13" t="s">
         <v>312</v>
       </c>
@@ -6860,12 +7203,15 @@
       <c r="P27" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="Q27" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
       <c r="B28" s="8">
         <v>26</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="13" t="s">
         <v>314</v>
       </c>
@@ -6905,12 +7251,15 @@
       <c r="P28" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="29" spans="2:16">
+      <c r="Q28" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
       <c r="B29" s="8">
         <v>27</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="13" t="s">
         <v>316</v>
       </c>
@@ -6950,12 +7299,15 @@
       <c r="P29" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="Q29" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
       <c r="B30" s="8">
         <v>28</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="13" t="s">
         <v>318</v>
       </c>
@@ -6993,6 +7345,9 @@
         <v>371</v>
       </c>
       <c r="P30" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q30" s="65" t="s">
         <v>371</v>
       </c>
     </row>
@@ -7009,10 +7364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23902C-6C91-46EC-B5AE-D4AA37303527}">
-  <dimension ref="B2:P17"/>
+  <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7031,9 +7386,10 @@
     <col min="13" max="14" width="13.1796875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.36328125" customWidth="1"/>
+    <col min="17" max="17" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:17">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -7079,12 +7435,15 @@
       <c r="P2" s="10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="2:16">
+      <c r="Q2" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="70" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="30" t="s">
@@ -7123,12 +7482,13 @@
       <c r="P3" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="Q3" s="65"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="30" t="s">
         <v>153</v>
       </c>
@@ -7166,11 +7526,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:17">
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="30" t="s">
         <v>155</v>
       </c>
@@ -7208,11 +7568,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:17">
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="30" t="s">
         <v>157</v>
       </c>
@@ -7250,11 +7610,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="14" customHeight="1">
+    <row r="7" spans="2:17" ht="14" customHeight="1">
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="30" t="s">
         <v>159</v>
       </c>
@@ -7292,11 +7652,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:17">
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="30" t="s">
         <v>161</v>
       </c>
@@ -7334,11 +7694,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:17">
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="70" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -7378,11 +7738,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:17">
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="30" t="s">
         <v>163</v>
       </c>
@@ -7420,11 +7780,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:17">
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="30" t="s">
         <v>165</v>
       </c>
@@ -7462,11 +7822,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:17">
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="30" t="s">
         <v>167</v>
       </c>
@@ -7504,11 +7864,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:17">
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="30" t="s">
         <v>169</v>
       </c>
@@ -7546,11 +7906,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:17">
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="30" t="s">
         <v>171</v>
       </c>
@@ -7588,11 +7948,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:17">
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="30" t="s">
         <v>173</v>
       </c>
@@ -7630,11 +7990,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:17">
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="30" t="s">
         <v>175</v>
       </c>
@@ -7676,7 +8036,7 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="30" t="s">
         <v>177</v>
       </c>
@@ -7743,14 +8103,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="2:7" s="48" customFormat="1" ht="14.5" customHeight="1">
       <c r="B3" s="49" t="s">
@@ -7773,10 +8133,10 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B4" s="71">
+      <c r="B4" s="72">
         <v>1</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>345</v>
       </c>
       <c r="D4" s="51" t="s">
@@ -7785,49 +8145,49 @@
       <c r="E4" s="52">
         <v>16</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="72">
         <f>SUM(E4:E7)</f>
         <v>124</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="73" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="51" t="s">
         <v>324</v>
       </c>
       <c r="E5" s="52">
         <v>65</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="51" t="s">
         <v>325</v>
       </c>
       <c r="E6" s="52">
         <v>28</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="51" t="s">
         <v>326</v>
       </c>
       <c r="E7" s="52">
         <v>15</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="14.5" customHeight="1">
       <c r="B8" s="52">
@@ -7850,14 +8210,14 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="71" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="2:7" ht="14.5" customHeight="1">
       <c r="B12" s="49" t="s">
@@ -7880,10 +8240,10 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B13" s="71">
+      <c r="B13" s="72">
         <v>1</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="73" t="s">
         <v>345</v>
       </c>
       <c r="D13" s="51" t="s">
@@ -7892,49 +8252,49 @@
       <c r="E13" s="52">
         <v>16</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="72">
         <f>SUM(E13:E16)</f>
         <v>124</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="73" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="51" t="s">
         <v>324</v>
       </c>
       <c r="E14" s="52">
         <v>65</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="51" t="s">
         <v>325</v>
       </c>
       <c r="E15" s="52">
         <v>28</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="51" t="s">
         <v>326</v>
       </c>
       <c r="E16" s="52">
         <v>15</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="2:7" ht="14.5" customHeight="1">
       <c r="B17" s="52">
@@ -7957,14 +8317,14 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="2:7" ht="14.5" customHeight="1">
       <c r="B21" s="49" t="s">
@@ -7987,10 +8347,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B22" s="71">
+      <c r="B22" s="72">
         <v>1</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="73" t="s">
         <v>345</v>
       </c>
       <c r="D22" s="51" t="s">
@@ -7999,49 +8359,49 @@
       <c r="E22" s="52">
         <v>16</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="72">
         <f>SUM(E22:E25)</f>
         <v>124</v>
       </c>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="74" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="51" t="s">
         <v>324</v>
       </c>
       <c r="E23" s="52">
         <v>65</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="74"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="51" t="s">
         <v>325</v>
       </c>
       <c r="E24" s="52">
         <v>28</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="74"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="51" t="s">
         <v>326</v>
       </c>
       <c r="E25" s="52">
         <v>15</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="74"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="2:7" ht="14.5" customHeight="1">
       <c r="B26" s="52">
@@ -8083,4 +8443,32 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A673A3B9-B88D-4D2B-88D7-595C446CAE37}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis & Sequence Diagram (Module GLIK) ver 1.0.xlsx
+++ b/Robust Analisis - Likuidasi/Tracking Use Case - Robust Analisis & Sequence Diagram (Module GLIK) ver 1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\Robust Analisis - Likuidasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE05293-357D-4C68-BBE9-65E332EDBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575171A5-4E68-426E-B229-A8EF0FA33ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{9D093FFE-4593-44B8-843D-58E930F801B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Persiapan (ver 1.0)" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="386">
   <si>
     <t>Nama Use Case</t>
   </si>
@@ -1188,20 +1188,23 @@
     <t>Melakukan checklist dan menyusun dokumen penerimaan LANIR &amp; LPJ TL audited</t>
   </si>
   <si>
-    <t>Deskripsi Penjelasan (TSD)</t>
-  </si>
-  <si>
     <t>Table Yang Belum ada</t>
   </si>
   <si>
     <t>Dana Cadangan</t>
+  </si>
+  <si>
+    <t>Deskripsi Penjelasan RA (TSD)</t>
+  </si>
+  <si>
+    <t>Deskripsi Penjelasan DA (TSD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,6 +1271,21 @@
       <sz val="7"/>
       <name val="Helvi"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Helvi"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1316,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1497,6 +1515,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1527,8 +1551,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,6 +1566,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3CA22E"/>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1844,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA68C8A-DA6F-4481-B8E4-BFBE438FF51F}">
-  <dimension ref="B2:Q21"/>
+  <dimension ref="B2:R21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q3"/>
+      <selection activeCell="Q3" sqref="Q3:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1867,10 +1903,10 @@
     <col min="14" max="14" width="15.08984375" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:18">
       <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
@@ -1917,14 +1953,17 @@
         <v>379</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="14.5" customHeight="1">
+        <v>384</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="14.5" customHeight="1">
       <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="68" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="57" t="s">
@@ -1964,15 +2003,15 @@
       <c r="P3" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q3" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
+      <c r="Q3" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
       <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="57" t="s">
         <v>213</v>
       </c>
@@ -2010,15 +2049,15 @@
       <c r="P4" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q4" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="Q4" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" s="41">
         <v>3</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="57" t="s">
         <v>215</v>
       </c>
@@ -2056,15 +2095,15 @@
       <c r="P5" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q5" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="Q5" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" s="41">
         <v>4</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="57" t="s">
         <v>217</v>
       </c>
@@ -2102,15 +2141,15 @@
       <c r="P6" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q6" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
+      <c r="Q6" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="B7" s="41">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="57" t="s">
         <v>218</v>
       </c>
@@ -2148,15 +2187,15 @@
       <c r="P7" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q7" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="Q7" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
       <c r="B8" s="41">
         <v>6</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="57" t="s">
         <v>220</v>
       </c>
@@ -2194,15 +2233,15 @@
       <c r="P8" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q8" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="Q8" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="41">
         <v>7</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="57" t="s">
         <v>222</v>
       </c>
@@ -2240,15 +2279,15 @@
       <c r="P9" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q9" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="Q9" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
       <c r="B10" s="41">
         <v>8</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="57" t="s">
         <v>224</v>
       </c>
@@ -2286,15 +2325,15 @@
       <c r="P10" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q10" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
+      <c r="Q10" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
       <c r="B11" s="41">
         <v>9</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="57" t="s">
         <v>226</v>
       </c>
@@ -2332,15 +2371,15 @@
       <c r="P11" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q11" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="Q11" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="41">
         <v>10</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="57" t="s">
         <v>228</v>
       </c>
@@ -2378,15 +2417,15 @@
       <c r="P12" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q12" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="Q12" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" s="41">
         <v>11</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="57" t="s">
         <v>228</v>
       </c>
@@ -2424,15 +2463,15 @@
       <c r="P13" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q13" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
+      <c r="Q13" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
       <c r="B14" s="41">
         <v>12</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="69" t="s">
         <v>142</v>
       </c>
       <c r="D14" s="57" t="s">
@@ -2472,15 +2511,15 @@
       <c r="P14" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q14" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
+      <c r="Q14" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="41">
         <v>13</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="57" t="s">
         <v>228</v>
       </c>
@@ -2518,15 +2557,15 @@
       <c r="P15" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q15" s="76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17">
+      <c r="Q15" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
       <c r="B16" s="41">
         <v>14</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="57" t="s">
         <v>229</v>
       </c>
@@ -2564,7 +2603,7 @@
       <c r="P16" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q16" s="76" t="s">
+      <c r="Q16" s="67" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2572,7 +2611,7 @@
       <c r="B17" s="41">
         <v>15</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="57" t="s">
         <v>231</v>
       </c>
@@ -2610,7 +2649,7 @@
       <c r="P17" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q17" s="76" t="s">
+      <c r="Q17" s="67" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2658,7 +2697,7 @@
       <c r="P18" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q18" s="76" t="s">
+      <c r="Q18" s="67" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2710,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B26C05-1418-48A4-9E35-BE8C2DB41FAB}">
-  <dimension ref="B2:Q67"/>
+  <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2733,10 +2772,10 @@
     <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:18">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -2783,14 +2822,17 @@
         <v>379</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="16" customHeight="1">
+        <v>384</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="16" customHeight="1">
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2836,11 +2878,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2884,11 +2926,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:18">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2932,11 +2974,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:18">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
@@ -2980,11 +3022,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:18">
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
@@ -3028,11 +3070,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:18">
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
@@ -3076,11 +3118,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18">
       <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
@@ -3124,11 +3166,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18">
       <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
@@ -3172,11 +3214,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="14" t="s">
         <v>19</v>
       </c>
@@ -3220,11 +3262,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="16" t="s">
         <v>21</v>
       </c>
@@ -3268,11 +3310,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18">
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="16" t="s">
         <v>23</v>
       </c>
@@ -3316,11 +3358,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18">
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="16" t="s">
         <v>25</v>
       </c>
@@ -3364,11 +3406,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18">
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -3412,11 +3454,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:18">
       <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="14" t="s">
         <v>29</v>
       </c>
@@ -3464,7 +3506,7 @@
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="16" t="s">
         <v>31</v>
       </c>
@@ -3512,7 +3554,7 @@
       <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="14" t="s">
         <v>33</v>
       </c>
@@ -3560,7 +3602,7 @@
       <c r="B19" s="8">
         <v>17</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="14" t="s">
         <v>35</v>
       </c>
@@ -3608,7 +3650,7 @@
       <c r="B20" s="8">
         <v>18</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="16" t="s">
         <v>37</v>
       </c>
@@ -3656,7 +3698,7 @@
       <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="14" t="s">
         <v>39</v>
       </c>
@@ -3704,7 +3746,7 @@
       <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="16" t="s">
         <v>41</v>
       </c>
@@ -3752,7 +3794,7 @@
       <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="14" t="s">
         <v>43</v>
       </c>
@@ -3800,7 +3842,7 @@
       <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="16" t="s">
         <v>45</v>
       </c>
@@ -3848,7 +3890,7 @@
       <c r="B25" s="8">
         <v>23</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="70" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -3898,7 +3940,7 @@
       <c r="B26" s="8">
         <v>24</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="15" t="s">
         <v>52</v>
       </c>
@@ -3946,7 +3988,7 @@
       <c r="B27" s="8">
         <v>25</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="15" t="s">
         <v>54</v>
       </c>
@@ -3994,7 +4036,7 @@
       <c r="B28" s="8">
         <v>26</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="18" t="s">
         <v>56</v>
       </c>
@@ -4042,7 +4084,7 @@
       <c r="B29" s="8">
         <v>27</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="21" t="s">
         <v>58</v>
       </c>
@@ -4090,7 +4132,7 @@
       <c r="B30" s="8">
         <v>28</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18" t="s">
         <v>60</v>
       </c>
@@ -4138,7 +4180,7 @@
       <c r="B31" s="8">
         <v>29</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="15" t="s">
         <v>62</v>
       </c>
@@ -4186,7 +4228,7 @@
       <c r="B32" s="8">
         <v>30</v>
       </c>
-      <c r="C32" s="68"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="21" t="s">
         <v>64</v>
       </c>
@@ -4234,7 +4276,7 @@
       <c r="B33" s="8">
         <v>31</v>
       </c>
-      <c r="C33" s="68"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18" t="s">
         <v>66</v>
       </c>
@@ -4282,7 +4324,7 @@
       <c r="B34" s="8">
         <v>32</v>
       </c>
-      <c r="C34" s="68"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="21" t="s">
         <v>68</v>
       </c>
@@ -4330,7 +4372,7 @@
       <c r="B35" s="8">
         <v>33</v>
       </c>
-      <c r="C35" s="68"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="18" t="s">
         <v>70</v>
       </c>
@@ -4378,7 +4420,7 @@
       <c r="B36" s="8">
         <v>34</v>
       </c>
-      <c r="C36" s="68"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="21" t="s">
         <v>72</v>
       </c>
@@ -4426,7 +4468,7 @@
       <c r="B37" s="8">
         <v>35</v>
       </c>
-      <c r="C37" s="68"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="21" t="s">
         <v>74</v>
       </c>
@@ -4474,7 +4516,7 @@
       <c r="B38" s="8">
         <v>36</v>
       </c>
-      <c r="C38" s="68"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18" t="s">
         <v>76</v>
       </c>
@@ -4522,7 +4564,7 @@
       <c r="B39" s="8">
         <v>37</v>
       </c>
-      <c r="C39" s="68"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="21" t="s">
         <v>78</v>
       </c>
@@ -4570,7 +4612,7 @@
       <c r="B40" s="8">
         <v>38</v>
       </c>
-      <c r="C40" s="68"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="21" t="s">
         <v>80</v>
       </c>
@@ -4618,7 +4660,7 @@
       <c r="B41" s="8">
         <v>39</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="21" t="s">
         <v>82</v>
       </c>
@@ -4666,7 +4708,7 @@
       <c r="B42" s="8">
         <v>40</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="21" t="s">
         <v>84</v>
       </c>
@@ -4714,7 +4756,7 @@
       <c r="B43" s="8">
         <v>41</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="18" t="s">
         <v>86</v>
       </c>
@@ -4762,7 +4804,7 @@
       <c r="B44" s="8">
         <v>42</v>
       </c>
-      <c r="C44" s="68"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="60" t="s">
         <v>88</v>
       </c>
@@ -4810,7 +4852,7 @@
       <c r="B45" s="8">
         <v>43</v>
       </c>
-      <c r="C45" s="68"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="28" t="s">
         <v>90</v>
       </c>
@@ -4858,7 +4900,7 @@
       <c r="B46" s="8">
         <v>44</v>
       </c>
-      <c r="C46" s="68"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="18" t="s">
         <v>92</v>
       </c>
@@ -4906,7 +4948,7 @@
       <c r="B47" s="8">
         <v>45</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="70" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="21" t="s">
@@ -4956,7 +4998,7 @@
       <c r="B48" s="8">
         <v>46</v>
       </c>
-      <c r="C48" s="68"/>
+      <c r="C48" s="70"/>
       <c r="D48" s="15" t="s">
         <v>96</v>
       </c>
@@ -5000,11 +5042,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:18">
       <c r="B49" s="8">
         <v>47</v>
       </c>
-      <c r="C49" s="68"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="18" t="s">
         <v>97</v>
       </c>
@@ -5048,11 +5090,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="2:17">
-      <c r="B50" s="8">
+    <row r="50" spans="2:18">
+      <c r="B50" s="78">
         <v>48</v>
       </c>
-      <c r="C50" s="68"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="15" t="s">
         <v>98</v>
       </c>
@@ -5095,12 +5137,15 @@
       <c r="Q50" s="65" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="51" spans="2:17">
-      <c r="B51" s="8">
+      <c r="R50" s="66" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="78">
         <v>49</v>
       </c>
-      <c r="C51" s="68"/>
+      <c r="C51" s="70"/>
       <c r="D51" s="21" t="s">
         <v>99</v>
       </c>
@@ -5144,11 +5189,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="2:17">
-      <c r="B52" s="8">
+    <row r="52" spans="2:18">
+      <c r="B52" s="78">
         <v>50</v>
       </c>
-      <c r="C52" s="68"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="18" t="s">
         <v>100</v>
       </c>
@@ -5192,11 +5237,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="53" spans="2:17">
-      <c r="B53" s="8">
+    <row r="53" spans="2:18">
+      <c r="B53" s="78">
         <v>51</v>
       </c>
-      <c r="C53" s="68"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="15" t="s">
         <v>101</v>
       </c>
@@ -5240,11 +5285,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="2:17">
-      <c r="B54" s="8">
+    <row r="54" spans="2:18">
+      <c r="B54" s="78">
         <v>52</v>
       </c>
-      <c r="C54" s="68"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="18" t="s">
         <v>102</v>
       </c>
@@ -5288,11 +5333,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="2:17">
-      <c r="B55" s="8">
+    <row r="55" spans="2:18">
+      <c r="B55" s="78">
         <v>53</v>
       </c>
-      <c r="C55" s="68"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="15" t="s">
         <v>103</v>
       </c>
@@ -5336,11 +5381,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="2:17">
-      <c r="B56" s="8">
+    <row r="56" spans="2:18">
+      <c r="B56" s="78">
         <v>54</v>
       </c>
-      <c r="C56" s="68"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="21" t="s">
         <v>104</v>
       </c>
@@ -5384,11 +5429,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="2:17">
-      <c r="B57" s="8">
+    <row r="57" spans="2:18">
+      <c r="B57" s="78">
         <v>55</v>
       </c>
-      <c r="C57" s="68"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="21" t="s">
         <v>115</v>
       </c>
@@ -5432,11 +5477,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="2:17">
-      <c r="B58" s="8">
+    <row r="58" spans="2:18">
+      <c r="B58" s="78">
         <v>56</v>
       </c>
-      <c r="C58" s="68"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="21" t="s">
         <v>117</v>
       </c>
@@ -5480,11 +5525,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="2:17">
-      <c r="B59" s="8">
+    <row r="59" spans="2:18">
+      <c r="B59" s="78">
         <v>57</v>
       </c>
-      <c r="C59" s="68"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="21" t="s">
         <v>120</v>
       </c>
@@ -5528,11 +5573,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="2:17">
-      <c r="B60" s="8">
+    <row r="60" spans="2:18">
+      <c r="B60" s="78">
         <v>58</v>
       </c>
-      <c r="C60" s="68"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="21" t="s">
         <v>122</v>
       </c>
@@ -5576,11 +5621,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="2:17">
-      <c r="B61" s="8">
+    <row r="61" spans="2:18">
+      <c r="B61" s="78">
         <v>59</v>
       </c>
-      <c r="C61" s="68"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="21" t="s">
         <v>124</v>
       </c>
@@ -5624,11 +5669,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="2:17">
-      <c r="B62" s="8">
+    <row r="62" spans="2:18">
+      <c r="B62" s="78">
         <v>60</v>
       </c>
-      <c r="C62" s="68"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="21" t="s">
         <v>126</v>
       </c>
@@ -5672,11 +5717,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="2:17">
-      <c r="B63" s="8">
+    <row r="63" spans="2:18">
+      <c r="B63" s="78">
         <v>61</v>
       </c>
-      <c r="C63" s="68"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="18" t="s">
         <v>128</v>
       </c>
@@ -5720,11 +5765,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="2:17">
-      <c r="B64" s="8">
+    <row r="64" spans="2:18">
+      <c r="B64" s="78">
         <v>62</v>
       </c>
-      <c r="C64" s="68"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="18" t="s">
         <v>130</v>
       </c>
@@ -5769,10 +5814,10 @@
       </c>
     </row>
     <row r="65" spans="2:17">
-      <c r="B65" s="8">
+      <c r="B65" s="78">
         <v>63</v>
       </c>
-      <c r="C65" s="68"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="15" t="s">
         <v>132</v>
       </c>
@@ -5817,10 +5862,10 @@
       </c>
     </row>
     <row r="66" spans="2:17">
-      <c r="B66" s="8">
+      <c r="B66" s="78">
         <v>64</v>
       </c>
-      <c r="C66" s="68"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="21" t="s">
         <v>134</v>
       </c>
@@ -5865,10 +5910,10 @@
       </c>
     </row>
     <row r="67" spans="2:17">
-      <c r="B67" s="8">
+      <c r="B67" s="78">
         <v>65</v>
       </c>
-      <c r="C67" s="68"/>
+      <c r="C67" s="70"/>
       <c r="D67" s="18" t="s">
         <v>136</v>
       </c>
@@ -5926,10 +5971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F6D62D-E7AF-48B8-BDB9-AC8C4457F551}">
-  <dimension ref="B2:Q30"/>
+  <dimension ref="B2:R30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q3"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5948,10 +5993,10 @@
     <col min="13" max="14" width="13.1796875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.36328125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:18">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5998,14 +6043,17 @@
         <v>379</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="14.5" customHeight="1">
-      <c r="B3" s="8">
+        <v>384</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="14.5" customHeight="1">
+      <c r="B3" s="78">
         <v>1</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -6051,11 +6099,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="8">
+    <row r="4" spans="2:18">
+      <c r="B4" s="78">
         <v>2</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="13" t="s">
         <v>275</v>
       </c>
@@ -6099,11 +6147,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="8">
+    <row r="5" spans="2:18">
+      <c r="B5" s="78">
         <v>3</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="13" t="s">
         <v>277</v>
       </c>
@@ -6147,11 +6195,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="8">
+    <row r="6" spans="2:18">
+      <c r="B6" s="78">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="13" t="s">
         <v>279</v>
       </c>
@@ -6195,11 +6243,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="B7" s="8">
+    <row r="7" spans="2:18" ht="15" customHeight="1">
+      <c r="B7" s="78">
         <v>5</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="13" t="s">
         <v>281</v>
       </c>
@@ -6243,11 +6291,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="8">
+    <row r="8" spans="2:18">
+      <c r="B8" s="78">
         <v>6</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="13" t="s">
         <v>283</v>
       </c>
@@ -6291,11 +6339,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="8">
+    <row r="9" spans="2:18">
+      <c r="B9" s="78">
         <v>7</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="13" t="s">
         <v>285</v>
       </c>
@@ -6339,11 +6387,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="8">
+    <row r="10" spans="2:18">
+      <c r="B10" s="78">
         <v>8</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="13" t="s">
         <v>287</v>
       </c>
@@ -6387,11 +6435,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="8">
+    <row r="11" spans="2:18">
+      <c r="B11" s="78">
         <v>9</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="13" t="s">
         <v>289</v>
       </c>
@@ -6435,11 +6483,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="8">
+    <row r="12" spans="2:18">
+      <c r="B12" s="78">
         <v>10</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="70" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -6485,11 +6533,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="8">
+    <row r="13" spans="2:18">
+      <c r="B13" s="78">
         <v>11</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="13" t="s">
         <v>269</v>
       </c>
@@ -6533,11 +6581,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="8">
+    <row r="14" spans="2:18">
+      <c r="B14" s="78">
         <v>12</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="13" t="s">
         <v>271</v>
       </c>
@@ -6581,11 +6629,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="8">
+    <row r="15" spans="2:18">
+      <c r="B15" s="79">
         <v>13</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="13" t="s">
         <v>291</v>
       </c>
@@ -6629,11 +6677,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="8">
+    <row r="16" spans="2:18">
+      <c r="B16" s="79">
         <v>14</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="13" t="s">
         <v>293</v>
       </c>
@@ -6678,10 +6726,10 @@
       </c>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="8">
+      <c r="B17" s="79">
         <v>15</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="13" t="s">
         <v>283</v>
       </c>
@@ -6726,10 +6774,10 @@
       </c>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="8">
+      <c r="B18" s="79">
         <v>16</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="13" t="s">
         <v>294</v>
       </c>
@@ -6774,10 +6822,10 @@
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="8">
+      <c r="B19" s="79">
         <v>17</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="13" t="s">
         <v>296</v>
       </c>
@@ -6822,10 +6870,10 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="8">
+      <c r="B20" s="79">
         <v>18</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="13" t="s">
         <v>298</v>
       </c>
@@ -6870,10 +6918,10 @@
       </c>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="8">
+      <c r="B21" s="79">
         <v>19</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="13" t="s">
         <v>300</v>
       </c>
@@ -6918,10 +6966,10 @@
       </c>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="8">
+      <c r="B22" s="79">
         <v>20</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="13" t="s">
         <v>302</v>
       </c>
@@ -6966,10 +7014,10 @@
       </c>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="8">
+      <c r="B23" s="79">
         <v>21</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="71" t="s">
         <v>304</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -7016,10 +7064,10 @@
       </c>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="8">
+      <c r="B24" s="79">
         <v>22</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="13" t="s">
         <v>306</v>
       </c>
@@ -7064,10 +7112,10 @@
       </c>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="8">
+      <c r="B25" s="79">
         <v>23</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="13" t="s">
         <v>308</v>
       </c>
@@ -7112,10 +7160,10 @@
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="8">
+      <c r="B26" s="79">
         <v>24</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="13" t="s">
         <v>310</v>
       </c>
@@ -7160,10 +7208,10 @@
       </c>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="8">
+      <c r="B27" s="79">
         <v>25</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="13" t="s">
         <v>312</v>
       </c>
@@ -7208,10 +7256,10 @@
       </c>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="8">
+      <c r="B28" s="79">
         <v>26</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="13" t="s">
         <v>314</v>
       </c>
@@ -7256,10 +7304,10 @@
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="8">
+      <c r="B29" s="79">
         <v>27</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="13" t="s">
         <v>316</v>
       </c>
@@ -7304,10 +7352,10 @@
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="8">
+      <c r="B30" s="79">
         <v>28</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="13" t="s">
         <v>318</v>
       </c>
@@ -7364,10 +7412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23902C-6C91-46EC-B5AE-D4AA37303527}">
-  <dimension ref="B2:Q17"/>
+  <dimension ref="B2:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="B3" sqref="B3:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7375,21 +7423,21 @@
     <col min="2" max="2" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6328125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" style="25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="13.1796875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" customWidth="1"/>
-    <col min="17" max="17" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.36328125" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:18">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -7436,14 +7484,17 @@
         <v>379</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="26">
+        <v>384</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="80">
         <v>1</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="72" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="30" t="s">
@@ -7482,13 +7533,15 @@
       <c r="P3" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="Q3" s="65"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="26">
+      <c r="Q3" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="80">
         <v>2</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="30" t="s">
         <v>153</v>
       </c>
@@ -7525,12 +7578,15 @@
       <c r="P4" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="26">
+      <c r="Q4" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="80">
         <v>3</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="30" t="s">
         <v>155</v>
       </c>
@@ -7567,12 +7623,15 @@
       <c r="P5" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="26">
+      <c r="Q5" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="80">
         <v>4</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="30" t="s">
         <v>157</v>
       </c>
@@ -7609,12 +7668,15 @@
       <c r="P6" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="14" customHeight="1">
-      <c r="B7" s="26">
+      <c r="Q6" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="14" customHeight="1">
+      <c r="B7" s="80">
         <v>5</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="30" t="s">
         <v>159</v>
       </c>
@@ -7651,12 +7713,15 @@
       <c r="P7" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="26">
+      <c r="Q7" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="80">
         <v>6</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="30" t="s">
         <v>161</v>
       </c>
@@ -7693,12 +7758,15 @@
       <c r="P8" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="26">
+      <c r="Q8" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="80">
         <v>7</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="72" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -7737,12 +7805,15 @@
       <c r="P9" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="26">
+      <c r="Q9" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="80">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="30" t="s">
         <v>163</v>
       </c>
@@ -7779,12 +7850,15 @@
       <c r="P10" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="26">
+      <c r="Q10" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="80">
         <v>9</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="30" t="s">
         <v>165</v>
       </c>
@@ -7821,12 +7895,15 @@
       <c r="P11" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="26">
+      <c r="Q11" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="80">
         <v>10</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="30" t="s">
         <v>167</v>
       </c>
@@ -7863,12 +7940,15 @@
       <c r="P12" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="26">
+      <c r="Q12" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="80">
         <v>11</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="30" t="s">
         <v>169</v>
       </c>
@@ -7905,12 +7985,15 @@
       <c r="P13" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="26">
+      <c r="Q13" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="80">
         <v>12</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="30" t="s">
         <v>171</v>
       </c>
@@ -7947,12 +8030,15 @@
       <c r="P14" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="26">
+      <c r="Q14" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="80">
         <v>13</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="30" t="s">
         <v>173</v>
       </c>
@@ -7989,12 +8075,15 @@
       <c r="P15" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="26">
+      <c r="Q15" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="80">
         <v>14</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="30" t="s">
         <v>175</v>
       </c>
@@ -8031,12 +8120,15 @@
       <c r="P16" s="59" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="26">
+      <c r="Q16" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17" s="80">
         <v>15</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="30" t="s">
         <v>177</v>
       </c>
@@ -8070,6 +8162,28 @@
       </c>
       <c r="P17" s="59" t="s">
         <v>371</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="X17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="X18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="X19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="X20">
+        <f>SUM(X17:X19)</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -8103,14 +8217,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="2:7" s="48" customFormat="1" ht="14.5" customHeight="1">
       <c r="B3" s="49" t="s">
@@ -8133,10 +8247,10 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B4" s="72">
+      <c r="B4" s="74">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="75" t="s">
         <v>345</v>
       </c>
       <c r="D4" s="51" t="s">
@@ -8145,49 +8259,49 @@
       <c r="E4" s="52">
         <v>16</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="74">
         <f>SUM(E4:E7)</f>
         <v>124</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="51" t="s">
         <v>324</v>
       </c>
       <c r="E5" s="52">
         <v>65</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="51" t="s">
         <v>325</v>
       </c>
       <c r="E6" s="52">
         <v>28</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="51" t="s">
         <v>326</v>
       </c>
       <c r="E7" s="52">
         <v>15</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="2:7" ht="14.5" customHeight="1">
       <c r="B8" s="52">
@@ -8210,14 +8324,14 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="14.5" customHeight="1">
       <c r="B12" s="49" t="s">
@@ -8240,10 +8354,10 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B13" s="72">
+      <c r="B13" s="74">
         <v>1</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>345</v>
       </c>
       <c r="D13" s="51" t="s">
@@ -8252,49 +8366,49 @@
       <c r="E13" s="52">
         <v>16</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="74">
         <f>SUM(E13:E16)</f>
         <v>124</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="75" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="51" t="s">
         <v>324</v>
       </c>
       <c r="E14" s="52">
         <v>65</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="75"/>
     </row>
     <row r="15" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="51" t="s">
         <v>325</v>
       </c>
       <c r="E15" s="52">
         <v>28</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="51" t="s">
         <v>326</v>
       </c>
       <c r="E16" s="52">
         <v>15</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
     </row>
     <row r="17" spans="2:7" ht="14.5" customHeight="1">
       <c r="B17" s="52">
@@ -8317,14 +8431,14 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="73" t="s">
         <v>353</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="2:7" ht="14.5" customHeight="1">
       <c r="B21" s="49" t="s">
@@ -8347,10 +8461,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B22" s="72">
+      <c r="B22" s="74">
         <v>1</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="75" t="s">
         <v>345</v>
       </c>
       <c r="D22" s="51" t="s">
@@ -8359,49 +8473,49 @@
       <c r="E22" s="52">
         <v>16</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="74">
         <f>SUM(E22:E25)</f>
         <v>124</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="76" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="51" t="s">
         <v>324</v>
       </c>
       <c r="E23" s="52">
         <v>65</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="75"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="51" t="s">
         <v>325</v>
       </c>
       <c r="E24" s="52">
         <v>28</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="75"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="51" t="s">
         <v>326</v>
       </c>
       <c r="E25" s="52">
         <v>15</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="75"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="2:7" ht="14.5" customHeight="1">
       <c r="B26" s="52">
@@ -8460,12 +8574,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
